--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2580.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2580.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8707885999148283</v>
+        <v>0.9749083518981934</v>
       </c>
       <c r="B1">
-        <v>1.377125676445178</v>
+        <v>5.505975246429443</v>
       </c>
       <c r="C1">
-        <v>3.075672846903804</v>
+        <v>4.182441234588623</v>
       </c>
       <c r="D1">
-        <v>2.251709415182334</v>
+        <v>1.03018856048584</v>
       </c>
       <c r="E1">
-        <v>0.9265980688216456</v>
+        <v>0.6485534310340881</v>
       </c>
     </row>
   </sheetData>
